--- a/chbeauty.xlsx
+++ b/chbeauty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7000" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="7000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="华文仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>他的</t>
     </r>
     <r>
@@ -208,6 +214,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="华文仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>他的</t>
     </r>
     <r>
@@ -235,6 +247,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="华文仿宋"/>
+        <charset val="134"/>
+      </rPr>
       <t>他善</t>
     </r>
     <r>
@@ -328,6 +346,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="山茶浪漫手写体"/>
+        <charset val="134"/>
+      </rPr>
       <t>回首向来萧瑟处，归去，</t>
     </r>
     <r>
@@ -348,6 +372,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="山茶浪漫手写体"/>
+        <charset val="134"/>
+      </rPr>
       <t>长恨此身非我有</t>
     </r>
     <r>
@@ -443,6 +473,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="小墨手写体"/>
+        <charset val="134"/>
+      </rPr>
       <t>柏台霜气夜凄凄，风动琅</t>
     </r>
     <r>
@@ -1184,7 +1220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1195,9 +1231,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1653,13 +1686,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>17780</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>113665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>120015</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -1679,7 +1712,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5358130" y="-2470785"/>
+          <a:off x="2919730" y="-2470785"/>
           <a:ext cx="2832735" cy="8636635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1949,7 +1982,7 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1962,7 +1995,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="14"/>
+      <c r="A1" s="13"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2128,16 +2161,16 @@
       <c r="A50" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="15" t="s">
+      <c r="D50" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I50" s="16" t="s">
+      <c r="I50" s="15" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2194,147 +2227,147 @@
   <sheetPr/>
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="15.5" spans="1:1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" ht="15.5" spans="1:1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" ht="15.5" spans="1:1">
-      <c r="A5" s="11"/>
+      <c r="A5" s="10"/>
     </row>
     <row r="6" ht="15.5" spans="1:1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" ht="15.5" spans="1:1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" ht="15.5" spans="1:1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" ht="15.5" spans="1:1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" ht="15.5" spans="1:1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" ht="15.5" spans="1:1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" s="11" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A14" s="11" t="s">
+    <row r="14" s="10" customFormat="1" ht="15.5" spans="1:1">
+      <c r="A14" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" ht="15.5" spans="1:1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" ht="15.5" spans="1:1">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" ht="15.5" spans="1:1">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" ht="15.5" spans="1:1">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" ht="15.5" spans="1:1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" ht="15.5" spans="1:1">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" ht="15.5" spans="1:1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="22" ht="15.5" spans="1:1">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" ht="15.5" spans="1:1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" ht="15.5" spans="1:1">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" ht="15.5" spans="1:1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" ht="15.5" spans="1:1">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="27" ht="15.5" spans="1:1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" ht="15.5" spans="1:1">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="29" ht="15.5" spans="1:1">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="30" ht="15.5" spans="1:1">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2367,27 +2400,27 @@
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="3:3">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2397,12 +2430,12 @@
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2413,68 +2446,68 @@
       </c>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="3:6">
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="30" ht="15.5" spans="3:3">
       <c r="C30" s="3" t="s">
@@ -2482,12 +2515,12 @@
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2497,22 +2530,22 @@
       </c>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2544,33 +2577,33 @@
       <c r="C3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" ht="19" spans="3:6">
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" ht="19" spans="3:6">
       <c r="C5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" ht="19" spans="3:6">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2583,26 +2616,26 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E1:E21"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" ht="25" spans="5:5">
-      <c r="E1" s="1" t="s">
+    <row r="1" ht="25" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="2" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="2" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
         <v>105</v>
       </c>
     </row>

--- a/chbeauty.xlsx
+++ b/chbeauty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7000" activeTab="4"/>
+    <workbookView windowWidth="18350" windowHeight="7000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -751,16 +751,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="华文仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1341,10 +1341,10 @@
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1362,7 +1362,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6652895" y="44450"/>
-          <a:ext cx="4516755" cy="2667000"/>
+          <a:ext cx="3716655" cy="2194560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1377,16 +1377,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>481965</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>23495</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>113665</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>419735</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>37465</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>559435</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>33655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1403,8 +1403,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6577965" y="4690745"/>
-          <a:ext cx="4204970" cy="2084070"/>
+          <a:off x="6819265" y="4150995"/>
+          <a:ext cx="3493770" cy="1731010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1982,7 +1982,7 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2227,8 +2227,8 @@
   <sheetPr/>
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2388,7 +2388,7 @@
   <sheetPr/>
   <dimension ref="C2:F44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2618,7 +2618,7 @@
   <sheetPr/>
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
